--- a/test_data/datathing.xlsx
+++ b/test_data/datathing.xlsx
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[吉带凶]吉中带凶，欲速不达，进不如守，可保安祥', 'analysis': '在好运中含藏凶兆，不能操之过急，不可冒然急进，前进得太快，容易出现危险，还不如坚守现在的阵地。'}}}</t>
+          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[吉带凶]有得有失，华而不实，须防劫财，始保平安', 'analysis': '金钱上有损失，切忌花枝招展，外表的华丽可能为您带来小人的攻击。'}}}</t>
         </is>
       </c>
       <c r="F2" s="6" t="n">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[吉带凶]吉中带凶，欲速不达，进不如守，可保安祥', 'analysis': '在好运中含藏凶兆，不能操之过急，不可冒然急进，前进得太快，容易出现危险，还不如坚守现在的阵地。'}}}</t>
+          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[吉带凶]有得有失，华而不实，须防劫财，始保平安', 'analysis': '金钱上有损失，切忌花枝招展，外表的华丽可能为您带来小人的攻击。'}}}</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="B1" s="8" t="n">
-        <v>1619678693</v>
+        <v>1619678696</v>
       </c>
     </row>
     <row r="2">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>993420876</v>
+        <v>993420879</v>
       </c>
     </row>
     <row r="3">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>13822991196</v>
+        <v>13822991199</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/datathing.xlsx
+++ b/test_data/datathing.xlsx
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[吉带凶]有得有失，华而不实，须防劫财，始保平安', 'analysis': '金钱上有损失，切忌花枝招展，外表的华丽可能为您带来小人的攻击。'}}}</t>
+          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[凶]如走夜路，前途无光，希望不大，劳而无功', 'analysis': '一生就像在夜晚里走路一样，想开创新天地，却部是难以大展拳脚，可用好做好现在的事情，等待时机，主动出击容易空手而回，此命需待贵人相助方容易成功。'}}}</t>
         </is>
       </c>
       <c r="F2" s="6" t="n">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[吉带凶]有得有失，华而不实，须防劫财，始保平安', 'analysis': '金钱上有损失，切忌花枝招展，外表的华丽可能为您带来小人的攻击。'}}}</t>
+          <t>{'error_code': 0, 'reason': 'success', 'result': {'data': {'conclusion': '[凶]如走夜路，前途无光，希望不大，劳而无功', 'analysis': '一生就像在夜晚里走路一样，想开创新天地，却部是难以大展拳脚，可用好做好现在的事情，等待时机，主动出击容易空手而回，此命需待贵人相助方容易成功。'}}}</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="B1" s="8" t="n">
-        <v>1619678696</v>
+        <v>1619678697</v>
       </c>
     </row>
     <row r="2">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>993420879</v>
+        <v>993420880</v>
       </c>
     </row>
     <row r="3">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>13822991199</v>
+        <v>13822991200</v>
       </c>
     </row>
   </sheetData>
